--- a/Question_Sets/Role-specific skills/Affiliate Marketing.xlsx
+++ b/Question_Sets/Role-specific skills/Affiliate Marketing.xlsx
@@ -16,23 +16,66 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As the marketing manager of a company running a new online course, you are struggling to generate enough sales to make it profitable despite your high-quality content. You have decided to implement an affiliate marketing program to boost your sales. How should you structure the program’s payments?', 'ques_type': 2, 'options': ['Pay affiliates each time your course’s ad is displayed on their website.', 'Pay affiliates for each lead they generate for your course.', 'Pay affiliates for each click on a link to your course’s website.', 'Pay affiliates a percentage of each sale they generate for your course.'], 'score': 'Pay affiliates a percentage of each sale they generate for your course.'}, {'title': 'You are an affiliate program manager responsible for overseeing the success and growth of your program. One of your top affiliates has contacted you with concerns about their decreased sales and wants to discuss potential strategies to improve their performance. This affiliate has been consistently generating significant revenue for your program.Which action should you take?', 'ques_type': 2, 'options': ['Offer the affiliate a higher commission rate to incentivize them to improve their performance.', 'Suggest that the affiliate invests more money in advertising and marketing efforts.', 'Reallocate resources to other affiliates who have shown consistent sales performance.', 'Provide training materials and marketing insights to help them regain momentum.'], 'score': 'Provide training materials and marketing insights to help them regain momentum.'}, {'title': 'You are working with a team of affiliate experts for a health and wellness brand. Your analysis shows that the customer lifetime value (CLTV) acquired through affiliate links is lower than those acquired through other channels, as they tend to make fewer repeat purchases. Which action should you take?', 'ques_type': 2, 'options': ['Increase the frequency of exclusive promotional offers for customers through affiliate links.', 'Conduct customer surveys or feedback sessions to gain insights into their preferences.', 'Expand the product range offered through affiliate links.', 'Launch aggressive marketing campaigns to drive more affiliate traffic.'], 'score': 'Conduct customer surveys or feedback sessions to gain insights into their preferences.'}, {'title': 'You are an affiliate marketer promoting a smartwatch with advanced health-tracking features and personalized workout recommendations on behalf of a technology company. Your target audience is fitness enthusiasts who want to track their progress toward their health goals.What should you include in the content you create?', 'ques_type': 15, 'options': ['Highly technical language.', 'Multiple call-to-action buttons.', 'Sales pitches.', 'Personal anecdotes.', 'Stories of customers who have used the watch.', 'Stock images. ', 'Generic product descriptions.'], 'score': ['Personal anecdotes.', 'Stories of customers who have used the watch.']}]</t>
+    <t>questions = [
+    {
+        "title": "As the marketing manager of a company running a new online course, you are struggling to generate enough sales to make it profitable despite your high-quality content. You have decided to implement an affiliate marketing program to boost your sales. How should you structure the program\u2019s payments?",
+        "ques_type": 2,
+        "options": [
+            "Pay affiliates each time your course\u2019s ad is displayed on their website.",
+            "Pay affiliates for each lead they generate for your course.",
+            "Pay affiliates for each click on a link to your course\u2019s website.",
+            "Pay affiliates a percentage of each sale they generate for your course."
+        ],
+        "score": "Pay affiliates a percentage of each sale they generate for your course."
+    },
+    {
+        "title": "You are an affiliate program manager responsible for overseeing the success and growth of your program. One of your top affiliates has contacted you with concerns about their decreased sales and wants to discuss potential strategies to improve their performance. This affiliate has been consistently generating significant revenue for your program.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Offer the affiliate a higher commission rate to incentivize them to improve their performance.",
+            "Suggest that the affiliate invests more money in advertising and marketing efforts.",
+            "Reallocate resources to other affiliates who have shown consistent sales performance.",
+            "Provide training materials and marketing insights to help them regain momentum."
+        ],
+        "score": "Provide training materials and marketing insights to help them regain momentum."
+    },
+    {
+        "title": "You are working with a team of affiliate experts for a health and wellness brand. Your analysis shows that the customer lifetime value (CLTV) acquired through affiliate links is lower than those acquired through other channels, as they tend to make fewer repeat purchases. Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Increase the frequency of exclusive promotional offers for customers through affiliate links.",
+            "Conduct customer surveys or feedback sessions to gain insights into their preferences.",
+            "Expand the product range offered through affiliate links.",
+            "Launch aggressive marketing campaigns to drive more affiliate traffic."
+        ],
+        "score": "Conduct customer surveys or feedback sessions to gain insights into their preferences."
+    },
+    {
+        "title": "You are an affiliate marketer promoting a smartwatch with advanced health-tracking features and personalized workout recommendations on behalf of a technology company. Your target audience is fitness enthusiasts who want to track their progress toward their health goals.What should you include in the content you create?",
+        "ques_type": 15,
+        "options": [
+            "Highly technical language.",
+            "Multiple call-to-action buttons.",
+            "Sales pitches.",
+            "Personal anecdotes.",
+            "Stories of customers who have used the watch.",
+            "Stock images. ",
+            "Generic product descriptions."
+        ],
+        "score": [
+            "Personal anecdotes.",
+            "Stories of customers who have used the watch."
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +99,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +399,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
